--- a/final_project/gru_gbrbm_H_div_2 (drop 0.2)/type1/pd_results_W5_H200_B32.xlsx
+++ b/final_project/gru_gbrbm_H_div_2 (drop 0.2)/type1/pd_results_W5_H200_B32.xlsx
@@ -502,25 +502,23 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.55</v>
-      </c>
-      <c r="B2" t="n">
-        <v>0.3636363636363636</v>
-      </c>
+        <v>0.552870090634441</v>
+      </c>
+      <c r="B2" t="inlineStr"/>
       <c r="C2" t="n">
-        <v>0.9617486338797814</v>
+        <v>1</v>
       </c>
       <c r="D2" t="n">
-        <v>0.02702702702702703</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0.5438066465256798</v>
+        <v>0.552870090634441</v>
       </c>
       <c r="F2" t="n">
-        <v>0.6998011928429424</v>
+        <v>0.7120622568093384</v>
       </c>
       <c r="G2" t="n">
-        <v>0.5075528700906344</v>
+        <v>0.4712990936555891</v>
       </c>
       <c r="H2" t="inlineStr">
         <is>
@@ -528,19 +526,19 @@
         </is>
       </c>
       <c r="I2" t="n">
-        <v>0.09157830630052075</v>
+        <v>0.08976156039229996</v>
       </c>
       <c r="J2" t="n">
-        <v>1238.272271161145</v>
+        <v>1146.417871810171</v>
       </c>
       <c r="K2" t="n">
-        <v>2250994.805381832</v>
+        <v>1595923.150819137</v>
       </c>
       <c r="L2" t="n">
-        <v>1500.331565148795</v>
+        <v>1263.2985200732</v>
       </c>
       <c r="M2" t="n">
-        <v>0.5791913525986536</v>
+        <v>0.7016526822509582</v>
       </c>
     </row>
   </sheetData>
